--- a/xlsx/上层建筑_intext.xlsx
+++ b/xlsx/上层建筑_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>上层建筑</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9%E5%93%B2%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>馬克思主義哲學</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%86%E5%8F%B2%E5%94%AF%E7%89%A9%E4%B8%BB%E4%B9%89</t>
@@ -546,7 +543,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -572,10 +569,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -601,10 +598,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
       </c>
       <c r="G7" t="n">
         <v>3</v>
